--- a/biology/Zoologie/Formica_tripartita/Formica_tripartita.xlsx
+++ b/biology/Zoologie/Formica_tripartita/Formica_tripartita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica tripartita est une espèce fossile de fourmi du genre Formica dans la tribu des Formicini.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica tripartita est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype R386 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[1]. Ce spécimen proviennent du gisement de Kleinkembs éocène[1], dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin[1]. Il a sept cotypes R386, 6, 187, 452, 534, 292 (?), 556 de la même provenance que l'holotype[1]. Il y a aussi un holotype male R535 avec un seul cotype R706.
-Étymologie
-L'épithète spécifique tripartita signifie en latin « divisé en trois parties ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica tripartita est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,25 +553,176 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R386 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen proviennent du gisement de Kleinkembs éocène, dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin. Il a sept cotypes R386, 6, 187, 452, 534, 292 (?), 556 de la même provenance que l'holotype. Il y a aussi un holotype male R535 avec un seul cotype R706.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique tripartita signifie en latin « divisé en trois parties ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : Pour l'holotype femelle R386 
-« Insecte de petite taille, corps brun noirâtre, pattes brunes, ailes transparentes à nervures jaunes. Tête large, face postérieure droite, coins postérieurs arrondis; yeux de forme ovale, placés vers le milieu de la tête; clypeus large, mandibules proéminentes, très finement dentées; arêtes frontales divergentes en arrière; antennes jaune clair, insérées aux angles postérieurs du clypeus; antennes coudées, scape cylindrique, de même longueur que la tête; funicule filiforme, un peu plus long que le scape, segments non visibles. Cou net. Thorax ovale, plus large que la tête; pronotum à peine apparent sur la face dorsale; mésonotum large; scutellum trapézoïdal, arrondi à l'arrière; épinotum large en forme de triangle curviligne, la pointe est dirigée vers l'arrière et tronquée à son sommet. Pétiole formé d'un segment transversal. abdomen allongé, légèrement ovoïde; 5 segments; le 1er montre deux dépressions résultant probablement des empreintes des pattes; le dernier, court, porte une aire pygidiale, longitudinale, ovale, entourée de cils. pattes brunes; cuisses fortes; tibias allongés. ailes transparentes, seule la base est conservée; 1 cellule discoïdale fermée. »[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype femelle R386 
+« Insecte de petite taille, corps brun noirâtre, pattes brunes, ailes transparentes à nervures jaunes. Tête large, face postérieure droite, coins postérieurs arrondis; yeux de forme ovale, placés vers le milieu de la tête; clypeus large, mandibules proéminentes, très finement dentées; arêtes frontales divergentes en arrière; antennes jaune clair, insérées aux angles postérieurs du clypeus; antennes coudées, scape cylindrique, de même longueur que la tête; funicule filiforme, un peu plus long que le scape, segments non visibles. Cou net. Thorax ovale, plus large que la tête; pronotum à peine apparent sur la face dorsale; mésonotum large; scutellum trapézoïdal, arrondi à l'arrière; épinotum large en forme de triangle curviligne, la pointe est dirigée vers l'arrière et tronquée à son sommet. Pétiole formé d'un segment transversal. abdomen allongé, légèrement ovoïde; 5 segments; le 1er montre deux dépressions résultant probablement des empreintes des pattes; le dernier, court, porte une aire pygidiale, longitudinale, ovale, entourée de cils. pattes brunes; cuisses fortes; tibias allongés. ailes transparentes, seule la base est conservée; 1 cellule discoïdale fermée. ».
 Pour l'holotype mâle R535 
-« Insecte identique au précédent. Abdomen de forme plus allongée. 6 segments. Ailes manquent sur 535, mais existant sur 706; pattes bien conservées; cuisses fortes; tibias cylindriques. »[4].
-Dimensions
-La longueur totale est de 4-6 mm pour l'holotype femelle R386[3].
-La longueur totale est de 4-4,5 mm pour l'holotype mâle R535[4].
-Affinités
+« Insecte identique au précédent. Abdomen de forme plus allongée. 6 segments. Ailes manquent sur 535, mais existant sur 706; pattes bien conservées; cuisses fortes; tibias cylindriques. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4-6 mm pour l'holotype femelle R386.
+La longueur totale est de 4-4,5 mm pour l'holotype mâle R535.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_tripartita</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pour l'holotype femelle R386 
-« Appartient certainement au groupe des Formicinae. Se distingue des Formicinae de l'ambre de Baltique ; n'a pu être rapproché d'aucune forme actuelle. »[3].
+« Appartient certainement au groupe des Formicinae. Se distingue des Formicinae de l'ambre de Baltique ; n'a pu être rapproché d'aucune forme actuelle. ».
 Pour l'holotype mâle R535 
 « Semble identique à la forme précédente. Autres échant. R706.
-Remarque : Formica tripartita est très voisin de F. flori, décrit plus haut. mais la taille est très inférieure. L'abdomen est plus ovoïde et le premier segment a un aspect particulier. C'est pourquoi nous l'avons décrit sous un autre nom. »[4].
+Remarque : Formica tripartita est très voisin de F. flori, décrit plus haut. mais la taille est très inférieure. L'abdomen est plus ovoïde et le premier segment a un aspect particulier. C'est pourquoi nous l'avons décrit sous un autre nom. ».
 </t>
         </is>
       </c>
